--- a/vernal_pool/VernalPoolSurvey.xlsx
+++ b/vernal_pool/VernalPoolSurvey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\Code\earthwiseaware\field_surveys\vernal_pool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73754637-8984-410E-8444-92D814C35666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CEACA3B-70B6-4C6B-90BE-6D63A4CFDC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="6810" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6935FB35-5C7C-4074-96DB-BA07789FCF60}"/>
+    <workbookView xWindow="44805" yWindow="6735" windowWidth="29190" windowHeight="15870" xr2:uid="{6935FB35-5C7C-4074-96DB-BA07789FCF60}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
   <si>
     <t>type</t>
   </si>
@@ -47,45 +47,18 @@
     <t>label</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
     <t>list_name</t>
   </si>
   <si>
-    <t>transgender</t>
-  </si>
-  <si>
-    <t>Transgender</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>lizard</t>
-  </si>
-  <si>
-    <t>Lizard</t>
-  </si>
-  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
@@ -267,6 +240,81 @@
   </si>
   <si>
     <t>Incidental (no methodology)</t>
+  </si>
+  <si>
+    <t>site_info</t>
+  </si>
+  <si>
+    <t>Site Information</t>
+  </si>
+  <si>
+    <t>pool_id</t>
+  </si>
+  <si>
+    <t>Pool ID</t>
+  </si>
+  <si>
+    <t>According to Matt Gage pool code if known / Reply NA if not known at time of survey</t>
+  </si>
+  <si>
+    <t>pvp_cvp_id</t>
+  </si>
+  <si>
+    <t>PVP or CVP ID</t>
+  </si>
+  <si>
+    <t>If known (as listed in MassOliver's Vernal Pool layer) / Reply NA otherwise</t>
+  </si>
+  <si>
+    <t>geopoint</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Pool geographic location</t>
+  </si>
+  <si>
+    <t>Use the map to locate the pool being documented. Place the pushpin roughly at the center of the pool.</t>
+  </si>
+  <si>
+    <t>select_one owner</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>Property Owner</t>
+  </si>
+  <si>
+    <t>dcr</t>
+  </si>
+  <si>
+    <t>DCR</t>
+  </si>
+  <si>
+    <t>trustees</t>
+  </si>
+  <si>
+    <t>Trustees</t>
+  </si>
+  <si>
+    <t>town</t>
+  </si>
+  <si>
+    <t>Town</t>
+  </si>
+  <si>
+    <t>distinctive_features</t>
+  </si>
+  <si>
+    <t>Describe distinctive features visible from or near the pool</t>
+  </si>
+  <si>
+    <t>w4 multiline</t>
+  </si>
+  <si>
+    <t>Indicate proximity to a trail blaze, include/describe specific topographic marker and ecological features</t>
   </si>
 </sst>
 </file>
@@ -618,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F19CA9-DD21-4165-A637-E9FCD034CDDE}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -643,177 +691,290 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -824,17 +985,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64954FB-866E-4B20-920C-683FB1F3334C}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -845,178 +1006,167 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1040,24 +1190,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/vernal_pool/VernalPoolSurvey.xlsx
+++ b/vernal_pool/VernalPoolSurvey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\Code\earthwiseaware\field_surveys\vernal_pool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CEACA3B-70B6-4C6B-90BE-6D63A4CFDC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EECB979-32A9-4E74-AD2D-03AE03568C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44805" yWindow="6735" windowWidth="29190" windowHeight="15870" xr2:uid="{6935FB35-5C7C-4074-96DB-BA07789FCF60}"/>
+    <workbookView xWindow="44880" yWindow="6810" windowWidth="29040" windowHeight="15720" xr2:uid="{6935FB35-5C7C-4074-96DB-BA07789FCF60}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="214">
   <si>
     <t>type</t>
   </si>
@@ -209,9 +209,6 @@
     <t>w4 minimal</t>
   </si>
   <si>
-    <t>theme-grid pages</t>
-  </si>
-  <si>
     <t>field-list</t>
   </si>
   <si>
@@ -315,6 +312,372 @@
   </si>
   <si>
     <t>Indicate proximity to a trail blaze, include/describe specific topographic marker and ecological features</t>
+  </si>
+  <si>
+    <t>pool_characteristics</t>
+  </si>
+  <si>
+    <t>Pool Characteristics</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>Approximate length (meters)</t>
+  </si>
+  <si>
+    <t>0 if dried at time of survey / leave empty if not known</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>Approximate width (meters)</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>Approximate depth (feet)</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>Photo of the pool at time of survey</t>
+  </si>
+  <si>
+    <t>Take a photo of the full pool if possible. Add special features if any. Take photo of disturbances, litter, and vandalism if encountered.</t>
+  </si>
+  <si>
+    <t>begin repeat</t>
+  </si>
+  <si>
+    <t>end repeat</t>
+  </si>
+  <si>
+    <t>photo_repeat</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>w4:4</t>
+  </si>
+  <si>
+    <t>select_multiple landscape_setting</t>
+  </si>
+  <si>
+    <t>landscape_setting</t>
+  </si>
+  <si>
+    <t>Landscape setting</t>
+  </si>
+  <si>
+    <t>Choose all that apply</t>
+  </si>
+  <si>
+    <t>upload_depression</t>
+  </si>
+  <si>
+    <t>Upload depression</t>
+  </si>
+  <si>
+    <t>wildlife_corridor</t>
+  </si>
+  <si>
+    <t>Pool part of wildlife corridor</t>
+  </si>
+  <si>
+    <t>pool_complex</t>
+  </si>
+  <si>
+    <t>Pool part of pool complex</t>
+  </si>
+  <si>
+    <t>wetland</t>
+  </si>
+  <si>
+    <t>Pool part of larger wetland system</t>
+  </si>
+  <si>
+    <t>pool_origin</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>Natural depression</t>
+  </si>
+  <si>
+    <t>human_made</t>
+  </si>
+  <si>
+    <t>Human-made pool/ditch</t>
+  </si>
+  <si>
+    <t>Created wetland/pool</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>select_one pool_origin</t>
+  </si>
+  <si>
+    <t>Pool origin</t>
+  </si>
+  <si>
+    <t>pool_condition</t>
+  </si>
+  <si>
+    <t>Vernal pool condition</t>
+  </si>
+  <si>
+    <t>Describe any recent modification to the pool and associated landscape (NA if not applicable)</t>
+  </si>
+  <si>
+    <t>select_one parent_material</t>
+  </si>
+  <si>
+    <t>parent_material</t>
+  </si>
+  <si>
+    <t>Parent material (that best applies to this pool)</t>
+  </si>
+  <si>
+    <t>fluvial</t>
+  </si>
+  <si>
+    <t>Glacial fluvial - outwash</t>
+  </si>
+  <si>
+    <t>dense_till</t>
+  </si>
+  <si>
+    <t>Dense till</t>
+  </si>
+  <si>
+    <t>loose_till</t>
+  </si>
+  <si>
+    <t>Loose till</t>
+  </si>
+  <si>
+    <t>Alluvium</t>
+  </si>
+  <si>
+    <t>alluvium</t>
+  </si>
+  <si>
+    <t>peat</t>
+  </si>
+  <si>
+    <t>Peat</t>
+  </si>
+  <si>
+    <t>coastal</t>
+  </si>
+  <si>
+    <t>Coastal marine sediments</t>
+  </si>
+  <si>
+    <t>select_one aquatic_type</t>
+  </si>
+  <si>
+    <t>aquatic_type</t>
+  </si>
+  <si>
+    <t>Aquatic resource type that best applies to this pool (choose dominant)</t>
+  </si>
+  <si>
+    <t>forested</t>
+  </si>
+  <si>
+    <t>Forested wetland</t>
+  </si>
+  <si>
+    <t>shrub</t>
+  </si>
+  <si>
+    <t>Shrub wetland</t>
+  </si>
+  <si>
+    <t>peatland</t>
+  </si>
+  <si>
+    <t>Peatland (acidic fen or bog)</t>
+  </si>
+  <si>
+    <t>herbaceous</t>
+  </si>
+  <si>
+    <t>Herbaceous wetland</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Open water</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>Intermittent stream reach</t>
+  </si>
+  <si>
+    <t>floodplain</t>
+  </si>
+  <si>
+    <t>Floodplain (overflow/oxbow)</t>
+  </si>
+  <si>
+    <t>substrate</t>
+  </si>
+  <si>
+    <t>mineral</t>
+  </si>
+  <si>
+    <t>Mineral soil</t>
+  </si>
+  <si>
+    <t>organic</t>
+  </si>
+  <si>
+    <t>Organic matter (peat/muck)</t>
+  </si>
+  <si>
+    <t>select_one substrate</t>
+  </si>
+  <si>
+    <t>Predominant substrate</t>
+  </si>
+  <si>
+    <t>select_one hydroperiod</t>
+  </si>
+  <si>
+    <t>hydroperiod</t>
+  </si>
+  <si>
+    <t>Pool hydroperiod</t>
+  </si>
+  <si>
+    <t>seasonal</t>
+  </si>
+  <si>
+    <t>Seasonal</t>
+  </si>
+  <si>
+    <t>permanent</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>semi_permanent</t>
+  </si>
+  <si>
+    <t>Semi-permanent</t>
+  </si>
+  <si>
+    <t>select_one hydrology</t>
+  </si>
+  <si>
+    <t>hydrology</t>
+  </si>
+  <si>
+    <t>Hydrology: Inlet/outlet</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>No inlet/outlet</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>Temporary inlet/outlet</t>
+  </si>
+  <si>
+    <t>Permanent inlet/outlet</t>
+  </si>
+  <si>
+    <t>has_water</t>
+  </si>
+  <si>
+    <t>Is water present?</t>
+  </si>
+  <si>
+    <t>select_one water_quality</t>
+  </si>
+  <si>
+    <t>water_quality</t>
+  </si>
+  <si>
+    <t>Water quality</t>
+  </si>
+  <si>
+    <t>${has_water} = 'yes'</t>
+  </si>
+  <si>
+    <t>turbid</t>
+  </si>
+  <si>
+    <t>High turbidity</t>
+  </si>
+  <si>
+    <t>algal</t>
+  </si>
+  <si>
+    <t>High algae content</t>
+  </si>
+  <si>
+    <t>tannic</t>
+  </si>
+  <si>
+    <t>Tannic</t>
+  </si>
+  <si>
+    <t>pool_edge_temperature</t>
+  </si>
+  <si>
+    <t>Pool edge: temperature (Celcius)</t>
+  </si>
+  <si>
+    <t>pool_edge_ph</t>
+  </si>
+  <si>
+    <t>Pool edge: pH</t>
+  </si>
+  <si>
+    <t>pool_center_temperature</t>
+  </si>
+  <si>
+    <t>Pool center: temperature (Celcius)</t>
+  </si>
+  <si>
+    <t>pool_center_ph</t>
+  </si>
+  <si>
+    <t>Pool center: pH</t>
+  </si>
+  <si>
+    <t>dynamic-grid pages</t>
+  </si>
+  <si>
+    <t>decimal</t>
   </si>
 </sst>
 </file>
@@ -666,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F19CA9-DD21-4165-A637-E9FCD034CDDE}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -680,7 +1043,7 @@
     <col min="6" max="6" width="14.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -702,8 +1065,11 @@
       <c r="G1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -714,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -737,7 +1103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -754,7 +1120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -774,7 +1140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -791,7 +1157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -808,7 +1174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -825,9 +1191,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -842,15 +1208,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -859,34 +1225,34 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
         <v>68</v>
       </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
       <c r="E13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
         <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -895,18 +1261,18 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>29</v>
       </c>
       <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
         <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
@@ -915,18 +1281,18 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -935,18 +1301,18 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>80</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>82</v>
       </c>
       <c r="E17" t="s">
         <v>56</v>
@@ -955,25 +1321,363 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>90</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="G18" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -985,10 +1689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64954FB-866E-4B20-920C-683FB1F3334C}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1083,40 +1787,40 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
         <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1127,46 +1831,475 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
         <v>83</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
         <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>195</v>
+      </c>
+      <c r="B65" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +2340,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/vernal_pool/VernalPoolSurvey.xlsx
+++ b/vernal_pool/VernalPoolSurvey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\Code\earthwiseaware\field_surveys\vernal_pool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EECB979-32A9-4E74-AD2D-03AE03568C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DBBA61C-5BA0-48B6-8967-27FB63FE97E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44880" yWindow="6810" windowWidth="29040" windowHeight="15720" xr2:uid="{6935FB35-5C7C-4074-96DB-BA07789FCF60}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="341">
   <si>
     <t>type</t>
   </si>
@@ -678,6 +678,387 @@
   </si>
   <si>
     <t>decimal</t>
+  </si>
+  <si>
+    <t>envelope</t>
+  </si>
+  <si>
+    <t>Vernal Pool Envelope and Critical Habitat Area Characteristics</t>
+  </si>
+  <si>
+    <t>select_multiple land_use</t>
+  </si>
+  <si>
+    <t>land_use</t>
+  </si>
+  <si>
+    <t>Land-use type withing the 100-ft vernal pool envelope</t>
+  </si>
+  <si>
+    <t>Pick all that apply</t>
+  </si>
+  <si>
+    <t>marsh</t>
+  </si>
+  <si>
+    <t>Emergent marsh/scrub-scrub wetland</t>
+  </si>
+  <si>
+    <t>residential</t>
+  </si>
+  <si>
+    <t>Residential/commercial</t>
+  </si>
+  <si>
+    <t>Upland forest</t>
+  </si>
+  <si>
+    <t>upland_forest</t>
+  </si>
+  <si>
+    <t>forested_wetland</t>
+  </si>
+  <si>
+    <t>grassland</t>
+  </si>
+  <si>
+    <t>Agricultural/grassland/meadow</t>
+  </si>
+  <si>
+    <t>land_use_proximal</t>
+  </si>
+  <si>
+    <t>land_use_distant</t>
+  </si>
+  <si>
+    <t>Land-use type withing the 100 - 750-ft vernal pool envelope</t>
+  </si>
+  <si>
+    <t>select_one yes_no_unknown</t>
+  </si>
+  <si>
+    <t>barriers</t>
+  </si>
+  <si>
+    <t>Are there one or more barriers to vernal pool fauna movement within the envelope and/or critical terrestrial habitat?</t>
+  </si>
+  <si>
+    <t>yes_no_unknown</t>
+  </si>
+  <si>
+    <t>barrier_text</t>
+  </si>
+  <si>
+    <t>Explain the nature of the barrier(s)</t>
+  </si>
+  <si>
+    <t>Include notes about litter and debris, foot traffic, presence of dogs (leashed and unleashed), presence of invasives, proximity to trails, etc.</t>
+  </si>
+  <si>
+    <t>${barriers} = 'yes'</t>
+  </si>
+  <si>
+    <t>barrier_reason</t>
+  </si>
+  <si>
+    <t>Is your answer based on:</t>
+  </si>
+  <si>
+    <t>select_multiple barrier_reason</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>Field estimate</t>
+  </si>
+  <si>
+    <t>GIS</t>
+  </si>
+  <si>
+    <t>gis</t>
+  </si>
+  <si>
+    <t>aerial</t>
+  </si>
+  <si>
+    <t>Aerial photo estimate</t>
+  </si>
+  <si>
+    <t>plants</t>
+  </si>
+  <si>
+    <t>Rapid Plant Community Assessment</t>
+  </si>
+  <si>
+    <t>canopy_cover</t>
+  </si>
+  <si>
+    <t>Pool canopy cover at time of survey (%)</t>
+  </si>
+  <si>
+    <t>select_one percent_range</t>
+  </si>
+  <si>
+    <t>% of water surface shaded by trees (&gt; 12')</t>
+  </si>
+  <si>
+    <t>percent_range</t>
+  </si>
+  <si>
+    <t>1 - 33%</t>
+  </si>
+  <si>
+    <t>34 - 67%</t>
+  </si>
+  <si>
+    <t>&gt; 67%</t>
+  </si>
+  <si>
+    <t>select_multiple tree_species</t>
+  </si>
+  <si>
+    <t>tree_species</t>
+  </si>
+  <si>
+    <t>Dominant tree species (if present)</t>
+  </si>
+  <si>
+    <t>What seems to be 1-3 species that are prevalent at the site (&gt;30% of all tree sp.)</t>
+  </si>
+  <si>
+    <t>oak</t>
+  </si>
+  <si>
+    <t>Oak</t>
+  </si>
+  <si>
+    <t>maple</t>
+  </si>
+  <si>
+    <t>Maple</t>
+  </si>
+  <si>
+    <t>birch</t>
+  </si>
+  <si>
+    <t>Birch</t>
+  </si>
+  <si>
+    <t>pine</t>
+  </si>
+  <si>
+    <t>Pine</t>
+  </si>
+  <si>
+    <t>hickory</t>
+  </si>
+  <si>
+    <t>Hickory</t>
+  </si>
+  <si>
+    <t>water_shaded_trees</t>
+  </si>
+  <si>
+    <t>water_shaded_shrubs</t>
+  </si>
+  <si>
+    <t>% of water surface shaded by shrubs (&gt; 12')</t>
+  </si>
+  <si>
+    <t>human_barrier</t>
+  </si>
+  <si>
+    <t>Are there any natural barriers preventing pool access (by humans)?</t>
+  </si>
+  <si>
+    <t>A natural barrier refers to a physical feature that protects or hinders travel through. Green briers (smilax sp.) for instance are good help to shelter a pool from wandering humans and dogs.</t>
+  </si>
+  <si>
+    <t>human_barrier_description</t>
+  </si>
+  <si>
+    <t>Please describe the natural barrier</t>
+  </si>
+  <si>
+    <t>${human_barrier} = 'yes'</t>
+  </si>
+  <si>
+    <t>invasives</t>
+  </si>
+  <si>
+    <t>Are invasive plant species present?</t>
+  </si>
+  <si>
+    <t>multiflora_rosa</t>
+  </si>
+  <si>
+    <t>Multiflora rosa</t>
+  </si>
+  <si>
+    <t>w4 horizontal</t>
+  </si>
+  <si>
+    <t>${invasives} = 'yes'</t>
+  </si>
+  <si>
+    <t>glossy_buckthorn</t>
+  </si>
+  <si>
+    <t>Glossy buckthorn</t>
+  </si>
+  <si>
+    <t>Garlic mustard</t>
+  </si>
+  <si>
+    <t>garlic_mustard</t>
+  </si>
+  <si>
+    <t>japanese_knotweed</t>
+  </si>
+  <si>
+    <t>Japanese knotweed</t>
+  </si>
+  <si>
+    <t>barberry</t>
+  </si>
+  <si>
+    <t>Barberry species (Japanese or European)</t>
+  </si>
+  <si>
+    <t>invasives_detail</t>
+  </si>
+  <si>
+    <t>If there are invasive plants at the location, please detail further</t>
+  </si>
+  <si>
+    <t>other_invasives</t>
+  </si>
+  <si>
+    <t>Do you see other species of invasive plant species than the ones listed above?</t>
+  </si>
+  <si>
+    <t>other_invasives_detail</t>
+  </si>
+  <si>
+    <t>Please detail further</t>
+  </si>
+  <si>
+    <t>If the species of invasive was not listed above, list it here. Describe for each invasive their extent: sparse, dense, where, etc. If you're not sure provide a few clues (describe what you see if possible).</t>
+  </si>
+  <si>
+    <t>${other_invasives} = 'yes'</t>
+  </si>
+  <si>
+    <t>general_plant_detail</t>
+  </si>
+  <si>
+    <t>General description of the plant community at location</t>
+  </si>
+  <si>
+    <t>Are there broadleaf herb species (including cranberries), grminoids? List the dominant, and the non-dominants of all categories. Also indicate if possible the % of the pool bottom that is covered by plants.</t>
+  </si>
+  <si>
+    <t>present_species</t>
+  </si>
+  <si>
+    <t>Present Species (Obligate and Others)</t>
+  </si>
+  <si>
+    <t>obligates</t>
+  </si>
+  <si>
+    <t>Do you hear or see any obligate species?</t>
+  </si>
+  <si>
+    <t>Vernal pool obligate species include: salamanders, wood frogs, fairy shrimp.</t>
+  </si>
+  <si>
+    <t>wood_frog</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>${obligates} = 'yes'</t>
+  </si>
+  <si>
+    <t>juveniles</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>spotted_salamander</t>
+  </si>
+  <si>
+    <t>Spotted salamander</t>
+  </si>
+  <si>
+    <t>Wood frog</t>
+  </si>
+  <si>
+    <t>marbled_salamander</t>
+  </si>
+  <si>
+    <t>Marbled salamander</t>
+  </si>
+  <si>
+    <t>fairy_shrimp</t>
+  </si>
+  <si>
+    <t>Obligate species - Fairy shrimp</t>
+  </si>
+  <si>
+    <t>obligates_detail</t>
+  </si>
+  <si>
+    <t>If you recorded any species above, add details</t>
+  </si>
+  <si>
+    <t>Numer of individuals, eggmasses, what developmental phase, etc.</t>
+  </si>
+  <si>
+    <t>photo_repeat_species</t>
+  </si>
+  <si>
+    <t>Species photos</t>
+  </si>
+  <si>
+    <t>Take one photo per species recorded (for visual sightings).</t>
+  </si>
+  <si>
+    <t>other_species</t>
+  </si>
+  <si>
+    <t>Any other herp and non herp species observed?</t>
+  </si>
+  <si>
+    <t>List what species (and their developmental stage) and how many of any other herp species you've encountered. Herp species include: American toad, gray tree frog, green frog, bull frog, spring peeper, painted turtle, snapping turtle, spotted turtle. Non-herp species include avian species, invertebrates, etc.</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>End of Session Info</t>
+  </si>
+  <si>
+    <t>From Earthwise Aware: Thanks for your work and time! We appreciate it greatly!</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>Session duration (minutes)</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>If you have anything else that you want to add or comment about. This is your chance!</t>
   </si>
 </sst>
 </file>
@@ -713,8 +1094,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1029,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F19CA9-DD21-4165-A637-E9FCD034CDDE}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1504,7 +1886,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -1521,7 +1903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>151</v>
       </c>
@@ -1535,7 +1917,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>173</v>
       </c>
@@ -1549,7 +1931,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>175</v>
       </c>
@@ -1563,7 +1945,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>184</v>
       </c>
@@ -1577,7 +1959,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1591,7 +1973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>194</v>
       </c>
@@ -1608,7 +1990,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>213</v>
       </c>
@@ -1625,7 +2007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>213</v>
       </c>
@@ -1642,7 +2024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>213</v>
       </c>
@@ -1659,7 +2041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>213</v>
       </c>
@@ -1676,8 +2058,841 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" t="s">
+        <v>215</v>
+      </c>
+      <c r="E47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" t="s">
+        <v>218</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" t="s">
+        <v>239</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>242</v>
+      </c>
+      <c r="B53" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" t="s">
+        <v>239</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>213</v>
+      </c>
+      <c r="B57" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" t="s">
+        <v>252</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" t="s">
+        <v>273</v>
+      </c>
+      <c r="C58" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" t="s">
+        <v>261</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" t="s">
+        <v>274</v>
+      </c>
+      <c r="C60" t="s">
+        <v>275</v>
+      </c>
+      <c r="E60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>276</v>
+      </c>
+      <c r="C61" t="s">
+        <v>277</v>
+      </c>
+      <c r="E61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>279</v>
+      </c>
+      <c r="C63" t="s">
+        <v>280</v>
+      </c>
+      <c r="D63" t="s">
+        <v>281</v>
+      </c>
+      <c r="E63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" t="s">
+        <v>282</v>
+      </c>
+      <c r="C65" t="s">
+        <v>283</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>232</v>
+      </c>
+      <c r="B67" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" t="s">
+        <v>285</v>
+      </c>
+      <c r="D67" t="s">
+        <v>287</v>
+      </c>
+      <c r="E67" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>232</v>
+      </c>
+      <c r="B68" t="s">
+        <v>288</v>
+      </c>
+      <c r="C68" t="s">
+        <v>289</v>
+      </c>
+      <c r="D68" t="s">
+        <v>287</v>
+      </c>
+      <c r="E68" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>232</v>
+      </c>
+      <c r="B69" t="s">
+        <v>291</v>
+      </c>
+      <c r="C69" t="s">
+        <v>290</v>
+      </c>
+      <c r="D69" t="s">
+        <v>287</v>
+      </c>
+      <c r="E69" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>232</v>
+      </c>
+      <c r="B70" t="s">
+        <v>292</v>
+      </c>
+      <c r="C70" t="s">
+        <v>293</v>
+      </c>
+      <c r="D70" t="s">
+        <v>287</v>
+      </c>
+      <c r="E70" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>232</v>
+      </c>
+      <c r="B71" t="s">
+        <v>294</v>
+      </c>
+      <c r="C71" t="s">
+        <v>295</v>
+      </c>
+      <c r="D71" t="s">
+        <v>287</v>
+      </c>
+      <c r="E71" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" t="s">
+        <v>296</v>
+      </c>
+      <c r="C72" t="s">
+        <v>297</v>
+      </c>
+      <c r="D72" t="s">
+        <v>287</v>
+      </c>
+      <c r="E72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>232</v>
+      </c>
+      <c r="B74" t="s">
+        <v>298</v>
+      </c>
+      <c r="C74" t="s">
+        <v>299</v>
+      </c>
+      <c r="D74" t="s">
+        <v>287</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" t="s">
+        <v>301</v>
+      </c>
+      <c r="D76" t="s">
+        <v>303</v>
+      </c>
+      <c r="E76" t="s">
+        <v>90</v>
+      </c>
+      <c r="G76" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" t="s">
+        <v>304</v>
+      </c>
+      <c r="C78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E78" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>307</v>
+      </c>
+      <c r="C81" t="s">
+        <v>308</v>
+      </c>
+      <c r="E81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>309</v>
+      </c>
+      <c r="C82" t="s">
+        <v>310</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>312</v>
+      </c>
+      <c r="C84" t="s">
+        <v>320</v>
+      </c>
+      <c r="D84" t="s">
+        <v>315</v>
+      </c>
+      <c r="E84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>313</v>
+      </c>
+      <c r="C85" t="s">
+        <v>313</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>316</v>
+      </c>
+      <c r="C86" t="s">
+        <v>316</v>
+      </c>
+      <c r="E86" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>317</v>
+      </c>
+      <c r="C87" t="s">
+        <v>317</v>
+      </c>
+      <c r="E87" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>318</v>
+      </c>
+      <c r="C90" t="s">
+        <v>319</v>
+      </c>
+      <c r="D90" t="s">
+        <v>315</v>
+      </c>
+      <c r="E90" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>313</v>
+      </c>
+      <c r="C91" t="s">
+        <v>313</v>
+      </c>
+      <c r="E91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>316</v>
+      </c>
+      <c r="C92" t="s">
+        <v>316</v>
+      </c>
+      <c r="E92" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>317</v>
+      </c>
+      <c r="C93" t="s">
+        <v>317</v>
+      </c>
+      <c r="E93" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>321</v>
+      </c>
+      <c r="C96" t="s">
+        <v>322</v>
+      </c>
+      <c r="D96" t="s">
+        <v>315</v>
+      </c>
+      <c r="E96" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>313</v>
+      </c>
+      <c r="C97" t="s">
+        <v>313</v>
+      </c>
+      <c r="E97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>316</v>
+      </c>
+      <c r="C98" t="s">
+        <v>316</v>
+      </c>
+      <c r="E98" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>317</v>
+      </c>
+      <c r="C99" t="s">
+        <v>317</v>
+      </c>
+      <c r="E99" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>315</v>
+      </c>
+      <c r="E102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>313</v>
+      </c>
+      <c r="C103" t="s">
+        <v>313</v>
+      </c>
+      <c r="E103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>316</v>
+      </c>
+      <c r="C104" t="s">
+        <v>316</v>
+      </c>
+      <c r="E104" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>317</v>
+      </c>
+      <c r="C105" t="s">
+        <v>317</v>
+      </c>
+      <c r="E105" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>323</v>
+      </c>
+      <c r="C108" t="s">
+        <v>324</v>
+      </c>
+      <c r="D108" t="s">
+        <v>315</v>
+      </c>
+      <c r="E108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109" t="s">
+        <v>325</v>
+      </c>
+      <c r="C109" t="s">
+        <v>326</v>
+      </c>
+      <c r="D109" t="s">
+        <v>315</v>
+      </c>
+      <c r="E109" t="s">
+        <v>90</v>
+      </c>
+      <c r="G109" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>105</v>
+      </c>
+      <c r="B111" t="s">
+        <v>328</v>
+      </c>
+      <c r="C111" t="s">
+        <v>329</v>
+      </c>
+      <c r="D111" t="s">
+        <v>315</v>
+      </c>
+      <c r="E111" t="s">
+        <v>110</v>
+      </c>
+      <c r="H111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>101</v>
+      </c>
+      <c r="B112" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" t="s">
+        <v>109</v>
+      </c>
+      <c r="E112" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>29</v>
+      </c>
+      <c r="B115" t="s">
+        <v>331</v>
+      </c>
+      <c r="C115" t="s">
+        <v>332</v>
+      </c>
+      <c r="E115" t="s">
+        <v>90</v>
+      </c>
+      <c r="G115" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>334</v>
+      </c>
+      <c r="C118" t="s">
+        <v>335</v>
+      </c>
+      <c r="E118" t="s">
+        <v>57</v>
+      </c>
+      <c r="G118" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" t="s">
+        <v>337</v>
+      </c>
+      <c r="C119" t="s">
+        <v>338</v>
+      </c>
+      <c r="E119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>29</v>
+      </c>
+      <c r="B120" t="s">
+        <v>339</v>
+      </c>
+      <c r="C120" t="s">
+        <v>340</v>
+      </c>
+      <c r="E120" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1689,10 +2904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64954FB-866E-4B20-920C-683FB1F3334C}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2300,6 +3515,259 @@
       </c>
       <c r="C66" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>217</v>
+      </c>
+      <c r="B70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>217</v>
+      </c>
+      <c r="B71" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" t="s">
+        <v>227</v>
+      </c>
+      <c r="C72" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>235</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>235</v>
+      </c>
+      <c r="B77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>240</v>
+      </c>
+      <c r="B80" t="s">
+        <v>246</v>
+      </c>
+      <c r="C80" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" t="s">
+        <v>247</v>
+      </c>
+      <c r="C81" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>240</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>255</v>
+      </c>
+      <c r="B85">
+        <v>33</v>
+      </c>
+      <c r="C85" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86">
+        <v>67</v>
+      </c>
+      <c r="C86" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87">
+        <v>100</v>
+      </c>
+      <c r="C87" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>260</v>
+      </c>
+      <c r="B89" t="s">
+        <v>263</v>
+      </c>
+      <c r="C89" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>260</v>
+      </c>
+      <c r="B90" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>260</v>
+      </c>
+      <c r="B91" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>260</v>
+      </c>
+      <c r="B92" t="s">
+        <v>269</v>
+      </c>
+      <c r="C92" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>260</v>
+      </c>
+      <c r="B93" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>260</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
